--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H2">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I2">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J2">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N2">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q2">
-        <v>5.838656581892165</v>
+        <v>66.38551192195418</v>
       </c>
       <c r="R2">
-        <v>35.03193949135299</v>
+        <v>398.3130715317251</v>
       </c>
       <c r="S2">
-        <v>0.05117123874288883</v>
+        <v>0.00685190079946649</v>
       </c>
       <c r="T2">
-        <v>0.03841432057171916</v>
+        <v>0.005061622823908928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H3">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I3">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J3">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N3">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q3">
-        <v>0.07478037475833332</v>
+        <v>2089.038018172945</v>
       </c>
       <c r="R3">
-        <v>0.4486822485499999</v>
+        <v>12534.22810903767</v>
       </c>
       <c r="S3">
-        <v>0.0006553912456350128</v>
+        <v>0.2156175474501597</v>
       </c>
       <c r="T3">
-        <v>0.0004920031257445459</v>
+        <v>0.1592805750331313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.0792385</v>
+        <v>181.4944075</v>
       </c>
       <c r="H4">
-        <v>390.1584769999999</v>
+        <v>362.988815</v>
       </c>
       <c r="I4">
-        <v>0.2640605522989326</v>
+        <v>0.2239486468210351</v>
       </c>
       <c r="J4">
-        <v>0.1982306263353075</v>
+        <v>0.1654349085470023</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N4">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q4">
-        <v>24.215966191959</v>
+        <v>14.33140339755833</v>
       </c>
       <c r="R4">
-        <v>145.295797151754</v>
+        <v>85.98842038535001</v>
       </c>
       <c r="S4">
-        <v>0.2122339223104088</v>
+        <v>0.001479198571408954</v>
       </c>
       <c r="T4">
-        <v>0.1593243026378438</v>
+        <v>0.001092710689962122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J5">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N5">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q5">
-        <v>1.867848312795889</v>
+        <v>22.82704976506722</v>
       </c>
       <c r="R5">
-        <v>16.810634815163</v>
+        <v>205.443447885605</v>
       </c>
       <c r="S5">
-        <v>0.01637022328835195</v>
+        <v>0.002356066497138813</v>
       </c>
       <c r="T5">
-        <v>0.01843372431501176</v>
+        <v>0.002610703286340675</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>187.223767</v>
       </c>
       <c r="I6">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J6">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N6">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q6">
-        <v>0.02392303689444445</v>
+        <v>718.3280420886673</v>
       </c>
       <c r="R6">
-        <v>0.21530733205</v>
+        <v>6464.952378798006</v>
       </c>
       <c r="S6">
-        <v>0.000209666627110278</v>
+        <v>0.07414136523723673</v>
       </c>
       <c r="T6">
-        <v>0.0002360955458047592</v>
+        <v>0.08215434755924637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>187.223767</v>
       </c>
       <c r="I7">
-        <v>0.08447577797556809</v>
+        <v>0.07700606288633029</v>
       </c>
       <c r="J7">
-        <v>0.09512412720758515</v>
+        <v>0.08532865336765341</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N7">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q7">
-        <v>7.746945030926002</v>
+        <v>4.927937573847778</v>
       </c>
       <c r="R7">
-        <v>69.72250527833401</v>
+        <v>44.35143816463</v>
       </c>
       <c r="S7">
-        <v>0.06789588806010585</v>
+        <v>0.0005086311519547379</v>
       </c>
       <c r="T7">
-        <v>0.07645430734676864</v>
+        <v>0.000563602522066355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H8">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I8">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J8">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N8">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q8">
-        <v>4.275815371502889</v>
+        <v>62.91200670610277</v>
       </c>
       <c r="R8">
-        <v>38.482338343526</v>
+        <v>566.208060354925</v>
       </c>
       <c r="S8">
-        <v>0.03747416312757017</v>
+        <v>0.00649338713471651</v>
       </c>
       <c r="T8">
-        <v>0.04219786009399944</v>
+        <v>0.007195173460797218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H9">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I9">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J9">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N9">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q9">
-        <v>0.05476380934444445</v>
+        <v>1979.732776077856</v>
       </c>
       <c r="R9">
-        <v>0.4928742840999999</v>
+        <v>17817.59498470071</v>
       </c>
       <c r="S9">
-        <v>0.0004799617725635178</v>
+        <v>0.2043357383021378</v>
       </c>
       <c r="T9">
-        <v>0.0005404619620231805</v>
+        <v>0.2264197484027164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>142.8621113333333</v>
+        <v>171.9980316666667</v>
       </c>
       <c r="H10">
-        <v>428.586334</v>
+        <v>515.994095</v>
       </c>
       <c r="I10">
-        <v>0.1933791023142199</v>
+        <v>0.2122309275432167</v>
       </c>
       <c r="J10">
-        <v>0.2177549443006804</v>
+        <v>0.235168226649403</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N10">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O10">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P10">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q10">
-        <v>17.734045328252</v>
+        <v>13.58153790717222</v>
       </c>
       <c r="R10">
-        <v>159.606407954268</v>
+        <v>122.23384116455</v>
       </c>
       <c r="S10">
-        <v>0.1554249774140862</v>
+        <v>0.001401802106362342</v>
       </c>
       <c r="T10">
-        <v>0.1750166222446578</v>
+        <v>0.001553304785889424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H11">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I11">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J11">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N11">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O11">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P11">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q11">
-        <v>1.5867845646135</v>
+        <v>20.3525580480275</v>
       </c>
       <c r="R11">
-        <v>9.520707387681</v>
+        <v>122.115348288165</v>
       </c>
       <c r="S11">
-        <v>0.01390692030786543</v>
+        <v>0.00210066480958098</v>
       </c>
       <c r="T11">
-        <v>0.01043994454689519</v>
+        <v>0.00155179901997199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H12">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I12">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J12">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N12">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O12">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P12">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q12">
-        <v>0.020323227225</v>
+        <v>640.460038620873</v>
       </c>
       <c r="R12">
-        <v>0.12193936335</v>
+        <v>3842.760231725238</v>
       </c>
       <c r="S12">
-        <v>0.0001781171229665689</v>
+        <v>0.06610431287796445</v>
       </c>
       <c r="T12">
-        <v>0.0001337127736017715</v>
+        <v>0.04883244936178504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>53.01711450000001</v>
+        <v>55.64279550000001</v>
       </c>
       <c r="H13">
-        <v>106.034229</v>
+        <v>111.285591</v>
       </c>
       <c r="I13">
-        <v>0.07176431814995911</v>
+        <v>0.06865847234198982</v>
       </c>
       <c r="J13">
-        <v>0.05387357411601602</v>
+        <v>0.05071925307032974</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N13">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O13">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P13">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q13">
-        <v>6.581226491343001</v>
+        <v>4.393740608665</v>
       </c>
       <c r="R13">
-        <v>39.487358948058</v>
+        <v>26.36244365199</v>
       </c>
       <c r="S13">
-        <v>0.05767928071912711</v>
+        <v>0.0004534946544443833</v>
       </c>
       <c r="T13">
-        <v>0.04329991679551907</v>
+        <v>0.0003350046885727112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H14">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I14">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J14">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N14">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O14">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P14">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q14">
-        <v>4.303402223675333</v>
+        <v>74.392952146285</v>
       </c>
       <c r="R14">
-        <v>38.730620013078</v>
+        <v>669.5365693165651</v>
       </c>
       <c r="S14">
-        <v>0.03771594021770747</v>
+        <v>0.007678379115085651</v>
       </c>
       <c r="T14">
-        <v>0.04247011369413501</v>
+        <v>0.008508235915186336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H15">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I15">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J15">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N15">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O15">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P15">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q15">
-        <v>0.05511713636666666</v>
+        <v>2341.018406251302</v>
       </c>
       <c r="R15">
-        <v>0.4960542273</v>
+        <v>21069.16565626172</v>
       </c>
       <c r="S15">
-        <v>0.0004830584063789952</v>
+        <v>0.2416254002562624</v>
       </c>
       <c r="T15">
-        <v>0.0005439489330347287</v>
+        <v>0.2677395681651848</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>143.783834</v>
+        <v>203.386317</v>
       </c>
       <c r="H16">
-        <v>431.351502</v>
+        <v>610.158951</v>
       </c>
       <c r="I16">
-        <v>0.1946267522348261</v>
+        <v>0.250961399315095</v>
       </c>
       <c r="J16">
-        <v>0.2191598631141254</v>
+        <v>0.2780845747487284</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N16">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O16">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P16">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q16">
-        <v>17.848462449756</v>
+        <v>16.06006154471</v>
       </c>
       <c r="R16">
-        <v>160.636162047804</v>
+        <v>144.54055390239</v>
       </c>
       <c r="S16">
-        <v>0.1564277536107396</v>
+        <v>0.001657619943746909</v>
       </c>
       <c r="T16">
-        <v>0.1761458004869557</v>
+        <v>0.0018367706683573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H17">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I17">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J17">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N17">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O17">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P17">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q17">
-        <v>4.238544865469444</v>
+        <v>49.56177248333611</v>
       </c>
       <c r="R17">
-        <v>38.146903789225</v>
+        <v>446.055952350025</v>
       </c>
       <c r="S17">
-        <v>0.03714751641773959</v>
+        <v>0.00511545876004974</v>
       </c>
       <c r="T17">
-        <v>0.04183003888036294</v>
+        <v>0.005668322609833034</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H18">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I18">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J18">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N18">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O18">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P18">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q18">
-        <v>0.05428645597222222</v>
+        <v>1559.623839120937</v>
       </c>
       <c r="R18">
-        <v>0.48857810375</v>
+        <v>14036.61455208843</v>
       </c>
       <c r="S18">
-        <v>0.0004757781452115576</v>
+        <v>0.1609746994600741</v>
       </c>
       <c r="T18">
-        <v>0.0005357509796569443</v>
+        <v>0.1783723750617713</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>141.6168416666667</v>
+        <v>135.4992116666667</v>
       </c>
       <c r="H19">
-        <v>424.850525</v>
+        <v>406.497635</v>
       </c>
       <c r="I19">
-        <v>0.1916934970264942</v>
+        <v>0.167194491092333</v>
       </c>
       <c r="J19">
-        <v>0.2158568649262854</v>
+        <v>0.1852643836168829</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N19">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O19">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P19">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q19">
-        <v>17.57946502345</v>
+        <v>10.69946941723889</v>
       </c>
       <c r="R19">
-        <v>158.21518521105</v>
+        <v>96.29522475515</v>
       </c>
       <c r="S19">
-        <v>0.154070202463543</v>
+        <v>0.001104332872209149</v>
       </c>
       <c r="T19">
-        <v>0.1734910750662655</v>
+        <v>0.001223685945278564</v>
       </c>
     </row>
   </sheetData>
